--- a/Projets_Dossiers/Projets_Dossiers_2022_2023.xlsx
+++ b/Projets_Dossiers/Projets_Dossiers_2022_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Preparation_Agregation\Projets_Dossiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BBA4E-F118-4D95-B844-12A1695554FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB22DE-FAEB-4E18-A121-D1FBB0E2AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>BOUJDID</t>
   </si>
@@ -97,14 +97,133 @@
   <si>
     <t xml:space="preserve">Robot mécanum. Utilisation dans une usine à champ restreint ?
 Peu de possibilité pour faire des virages ou des rotations. </t>
+  </si>
+  <si>
+    <t>Chariot collaboratif : Co-chariot</t>
+  </si>
+  <si>
+    <t>Pas de contact pour le moment</t>
+  </si>
+  <si>
+    <t>Tranport de charges lourdes dans l'industrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cahier des charges : valeur du chargement ?
+Vitesse à atteindre ?
+Loi d'assistance entre l'effort de l'opérateur et le mouvement souhaité. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Asservissement moteur ?
+ * Liaison capteur d'effort présence opérateur. </t>
+  </si>
+  <si>
+    <t>Partie pédagogique</t>
+  </si>
+  <si>
+    <t>Asservissement</t>
+  </si>
+  <si>
+    <t>Dimensionnement des moteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquision de l'effort  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot Aspirateur. </t>
+  </si>
+  <si>
+    <t>Atelier de fabrication pour collecter les copeaux. 
+Roues "ordinaires"</t>
+  </si>
+  <si>
+    <t>Dimensionnement de la transmission par engrenages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asservissement en position du robot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problématique actuelle : trouver une solution pour positionner le robot dans l'atelier. </t>
+  </si>
+  <si>
+    <t>Autonomie énergéique du robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localisation + Déplacement du robot.
+Robot 2 roues motrices + 1 roue folle.
+Quelle solution pour l'aspiration ?  
+Charge </t>
+  </si>
+  <si>
+    <t>Robot utilisable dans les serres de tomates.
+Coulisseau pour translation verticale + rotule pour camera. 
+Traitement d'images pour estimer le nombre d'ouvriers nécessaires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact avec une entreprise agriole. </t>
+  </si>
+  <si>
+    <t>Réflexion à mener sur le besoin réel du produit. 
+Choix de la structure du robot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asservissement de la position du robot. </t>
+  </si>
+  <si>
+    <t>Cinématique du mécanisme de mise en position de la caméra.</t>
+  </si>
+  <si>
+    <t>Traitement des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot  â cables appliqué au positionnement d'une caméra spyder. 
+</t>
+  </si>
+  <si>
+    <t>Choix de structure de robot :
+ * Robot plan / ou robot 3D
+ * 2 actionneurs + gravité ou 3 actionneurs ou 4 actionneurs ?</t>
+  </si>
+  <si>
+    <t>Cinématique : positionnement du mobile/Enroulement des cables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asservissement en position / asservissement en tension. </t>
+  </si>
+  <si>
+    <t>Dimensionnement moteur et/ou des câbles</t>
+  </si>
+  <si>
+    <t>Robot Mecanum à roues holonomes (4 roues) 
+Transport de charges lourdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etude cinématique des roues mécanum. Etude des mouvements possibles (ligne droite, virage, virage sur place…)
+Axe des roues parallèles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinématique du mouvement. </t>
+  </si>
+  <si>
+    <t>Conception mécanique du châssis + RDM</t>
+  </si>
+  <si>
+    <t>Dimensionnement du motoréducteur + asservissements.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,9 +251,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,30 +548,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <pane xSplit="2180" topLeftCell="F1" activePane="topRight"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
     <col min="3" max="4" width="53.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="31" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="19.6328125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="5">
+        <v>45005</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -449,29 +596,74 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -480,15 +672,33 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -497,12 +707,30 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -510,9 +738,28 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projets_Dossiers/Projets_Dossiers_2022_2023.xlsx
+++ b/Projets_Dossiers/Projets_Dossiers_2022_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Preparation_Agregation\Projets_Dossiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB22DE-FAEB-4E18-A121-D1FBB0E2AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C55D61-F5B6-4751-A2D1-FBFBC78A83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>BOUJDID</t>
   </si>
@@ -208,13 +208,16 @@
   </si>
   <si>
     <t>Dimensionnement du motoréducteur + asservissements.</t>
+  </si>
+  <si>
+    <t>Robot suiveur de lignes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +227,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,6 +287,12 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,12 +574,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
-      <pane xSplit="2180" topLeftCell="F1" activePane="topRight"/>
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" workbookViewId="0">
+      <pane xSplit="2180" topLeftCell="D1" activePane="topRight"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,127 +660,132 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
